--- a/EV sales project.xlsx
+++ b/EV sales project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swetanshu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA57F6-3265-4D6B-999A-5E89E8467A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CA3FB-A246-4684-9F1E-65E46AAC78FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{81EA728F-94C5-41DD-9BCA-B06A69630B50}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96777694-031D-4DD7-A4CC-E15DF6CA3B88}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G43"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,7 +3691,7 @@
   <dimension ref="B1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
